--- a/Rutinas del ciclo.xlsx
+++ b/Rutinas del ciclo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
   <si>
     <t>Lunes</t>
   </si>
@@ -76,383 +76,413 @@
     <t>Maximo 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Finger Tip One arm Straddle-Tuck Sequence 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifts 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Assisted One arm hold 
+    2X35s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall entries to one arm 
+    2X16r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swing up full position 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg Raises 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle press to handstand 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancake legs up 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L sit Hold 
+    3X15s
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg hollow back 
+    3X40s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question handstand Shape 
+    3X4r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg hollow back from bridge 
+    3X30s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg question handstand shape 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assisted semi full flag 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep flag 
+    2X40s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step up + 12 Kg 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cossack Squat  + 16 Kg 
+    2X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One arm hold 
+    3X5s
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finger Tip One arm  Tuck -Full Sequence 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One arm lateral walks 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall Assisted One arm hold 
-    2X35
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall entries to one arm 
-    2X16
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assisted One arm hold 
+    2X25s
 </t>
   </si>
   <si>
     <t xml:space="preserve">Swing up full position 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancake legs up 
-    2X12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full press to handstand 
-    2X5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L sit Hold 
-    2X15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V sit Ups 
-    2X6
-</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollow back hold 
-    2X15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg hollow back from bridge 
-    2X30
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg hollow back 
-    2X40
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle press to handstand chest to wall 
+    2X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg front lever hold 
+    3X4r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck planche 
+    3X15s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance tuck front lever touch bar 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep handstand push up 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted pull ups + 25 Kg 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pike push ups 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted chin ups + 25 Kg 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted push up + 25 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck planche push up 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive Squats + 12 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead lift + 80 Kg 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step up + 12 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck walks + 10 Kg 
+    3X12r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Hollow back repetitions 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep flag 
-    2X40
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep flag + Knee behind 
-    2X40
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg dead lift  + 26 Kg 
-    1X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cossack Squat  + 16 Kg 
-    1X12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assisted One arm hold 
-    2X25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swing up straddle position 
-    1X5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle press to handstand 
-    1X6
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge to stand up 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monkey 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One arm Shrugs in block + hold 
+    2X3s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pike to advance push up 
+    2X8r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Straddle front lever hold 
-    2X10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuck planche 
-    2X15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance tuck front lever touch bar 
-    2X6
+    2X10s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep handstand push up 
+    2X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archer pull ups 
+    2X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull ups 
+    2X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep assisted handstand push up 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck planche push up 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t>Pectoral</t>
+  </si>
+  <si>
+    <t>Deltoide</t>
+  </si>
+  <si>
+    <t>Triceps</t>
+  </si>
+  <si>
+    <t>Escapula</t>
+  </si>
+  <si>
+    <t>Espalda</t>
+  </si>
+  <si>
+    <t>Biceps</t>
+  </si>
+  <si>
+    <t>Gluteos</t>
+  </si>
+  <si>
+    <t>Isquios</t>
+  </si>
+  <si>
+    <t>Cuadriceps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capoeira leg changes 
+    3X6s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg sequence with head outside 
+    3X6s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One arm at a time cartwheel 
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L shape cartwheel 
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDR hold + 5 Kg 
+    3X4r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handstand to QDR 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle press to handstand chest to wall 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle front lever hold 
+    3X10s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance tuck planche 
+    3X15s
 </t>
   </si>
   <si>
     <t xml:space="preserve">90 degrees Negatives 
-    2X5
+    3X5r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive pull ups 
+    3X7r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front assisted handstand push up 
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Dips 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curl de biceps con mancuerna + 16 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger Tip One arm  Straddle -Full Sequence 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck to straddle + 5 Kg 
+    3X8s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg complete sequence + 5 Kg 
+    3X8s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg Hip Thrust 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle front lever negative 
+    3X5r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck to Handstand 
+    3X5r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Pull ups 
-    2X12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over head press + 24 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curl de biceps con mancuerna + 16 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Dips 
-    2X12
+    3X12r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Dips 
-    2X10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive Squats + 12 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead lift + 80 Kg 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long walk + 20 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sit on a wall + 10 Kg 
-    2X45
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge to stand up 
-    2X6
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squats + 60 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front handspring 
+    3X6r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Bend S 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifts 
-    2X12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One arm Shrugs in block + hold 
-    2X3
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartwheel to front handsrping 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helicopter cartwheel progression 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand up to bridge 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stalder Negative 
+    3X8r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Pike to advance push up 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg front lever hold 
-    2X4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handstand push up 45  
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive pull ups 
-    2X7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pike push ups 
-    2X12
-</t>
-  </si>
-  <si>
-    <t>Pectoral</t>
-  </si>
-  <si>
-    <t>Deltoide</t>
-  </si>
-  <si>
-    <t>Triceps</t>
-  </si>
-  <si>
-    <t>Escapula</t>
-  </si>
-  <si>
-    <t>Espalda</t>
-  </si>
-  <si>
-    <t>Biceps</t>
-  </si>
-  <si>
-    <t>Gluteos</t>
-  </si>
-  <si>
-    <t>Isquios</t>
-  </si>
-  <si>
-    <t>Cuadriceps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg sequence with head outside 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capoeira leg changes 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn back cartwheel 
-    2X10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Square cartwheel 
-    2X10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QDR side change + 5 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QDR to stand up 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swing up straddle position 
-    2X5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep handstand push up 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted pull ups + 25 Kg 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curl de biceps en anillas + 30 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assisted semi full flag 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuck to straddle + 5 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L changes + 5 Kg 
-    2X12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATG Split Squats + 12 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg dead lift  + 26 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle front lever negative 
-    2X5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pike to handstand 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archer pull ups 
-    2X10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front assisted handstand push up 
-    2X10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted push up + 25 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squats + 60 Kg 
-    2X8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stand up monkey 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helicopter cartwheel progression 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartwheel to front handsrping 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front handspring 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornado front handspring 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle press to handstand chest to wall 
-    2X6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance tuck planche 
-    2X15
+    3X8r
 </t>
   </si>
 </sst>
@@ -902,22 +932,22 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="J2" s="1">
         <v>392</v>
@@ -926,28 +956,28 @@
         <v>560</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="S2" s="1">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="T2" s="1">
         <v>392</v>
@@ -967,22 +997,22 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I3" s="1">
-        <v>772</v>
+        <v>856</v>
       </c>
       <c r="J3" s="1">
         <v>420</v>
@@ -991,28 +1021,28 @@
         <v>616</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S3" s="1">
-        <v>679</v>
+        <v>899</v>
       </c>
       <c r="T3" s="1">
         <v>420</v>
@@ -1032,22 +1062,22 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I4" s="1">
-        <v>508</v>
+        <v>669</v>
       </c>
       <c r="J4" s="1">
         <v>280</v>
@@ -1056,28 +1086,28 @@
         <v>392</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1">
-        <v>516</v>
+        <v>746</v>
       </c>
       <c r="T4" s="1">
         <v>280</v>
@@ -1100,19 +1130,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I5" s="1">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="J5" s="1">
         <v>420</v>
@@ -1121,28 +1151,28 @@
         <v>588</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S5" s="1">
-        <v>530</v>
+        <v>732</v>
       </c>
       <c r="T5" s="1">
         <v>420</v>
@@ -1162,22 +1192,22 @@
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I6" s="1">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="J6" s="1">
         <v>448</v>
@@ -1186,28 +1216,28 @@
         <v>616</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S6" s="1">
-        <v>599</v>
+        <v>855</v>
       </c>
       <c r="T6" s="1">
         <v>448</v>
@@ -1227,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="J7" s="1">
         <v>224</v>
@@ -1251,28 +1281,28 @@
         <v>392</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S7" s="1">
-        <v>433</v>
+        <v>603</v>
       </c>
       <c r="T7" s="1">
         <v>224</v>
@@ -1292,22 +1322,22 @@
         <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1">
-        <v>402</v>
+        <v>569</v>
       </c>
       <c r="J8" s="1">
         <v>224</v>
@@ -1316,28 +1346,28 @@
         <v>336</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S8" s="1">
-        <v>508</v>
+        <v>632</v>
       </c>
       <c r="T8" s="1">
         <v>224</v>
@@ -1357,19 +1387,19 @@
         <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I9" s="1">
-        <v>402</v>
+        <v>569</v>
       </c>
       <c r="J9" s="1">
         <v>280</v>
@@ -1378,19 +1408,19 @@
         <v>448</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S9" s="1">
-        <v>508</v>
+        <v>632</v>
       </c>
       <c r="T9" s="1">
         <v>280</v>
@@ -1407,16 +1437,16 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1">
-        <v>402</v>
+        <v>569</v>
       </c>
       <c r="J10" s="1">
         <v>336</v>
@@ -1425,16 +1455,16 @@
         <v>504</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S10" s="1">
-        <v>508</v>
+        <v>632</v>
       </c>
       <c r="T10" s="1">
         <v>336</v>
@@ -1451,13 +1481,13 @@
         <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1">
@@ -1468,7 +1498,7 @@
         <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1">

--- a/Rutinas del ciclo.xlsx
+++ b/Rutinas del ciclo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>Lunes</t>
   </si>
@@ -76,13 +76,101 @@
     <t>Maximo 2</t>
   </si>
   <si>
+    <t xml:space="preserve">One arm hold 
+    3X5s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One arm lateral walks 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assisted One arm hold 
+    2X25s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall entries to one arm 
+    2X16r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swing up full position 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancake legs up 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle press to handstand chest to wall 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L sit Hold 
+    3X15s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle sit Hold 
+    3X15s
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow back hold 
+    3X15s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg hollow back 
+    3X40s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg question handstand shape 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question handstand Shape 
+    3X4r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assisted semi full flag 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep flag 
+    2X40s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg Hip Thrust 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step up + 12 Kg 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger Tip One arm  Straddle -Full Sequence 
+    3X6r
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finger Tip One arm Straddle-Tuck Sequence 
     3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifts 
-    3X12r
 </t>
   </si>
   <si>
@@ -91,101 +179,200 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Wall entries to one arm 
-    2X16r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swing up full position 
+    <t xml:space="preserve">Swing up straddle position 
+    2X5r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle press to handstand 
+    2X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle front lever hold 
+    3X10s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck planche 
+    3X15s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle front lever negative 
+    3X5r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep handstand push up 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted pull ups + 25 Kg 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep assisted handstand push up 
     3X8r
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Leg Raises 
-    3X6r
+    <t xml:space="preserve">Curl de biceps en anillas + 30 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Dips 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck planche push up 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive Squats + 12 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip Thrust + 80 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATG Split Squats + 12 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sit on a wall + 10 Kg 
+    3X45s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front handspring 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bend S 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring the block 
+    3X4r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One arm Shrugs in block + hold 
+    2X3s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance tuck planche 
+    2X15s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straddle front lever hold 
+    2X10s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handstand push up 45  
+    2X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted pull ups + 25 Kg 
+    2X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archer pull ups 
+    2X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pike push ups 
+    2X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuck planche push up 
+    2X8r
+</t>
+  </si>
+  <si>
+    <t>Pectoral</t>
+  </si>
+  <si>
+    <t>Deltoide</t>
+  </si>
+  <si>
+    <t>Triceps</t>
+  </si>
+  <si>
+    <t>Escapula</t>
+  </si>
+  <si>
+    <t>Espalda</t>
+  </si>
+  <si>
+    <t>Biceps</t>
+  </si>
+  <si>
+    <t>Gluteos</t>
+  </si>
+  <si>
+    <t>Isquios</t>
+  </si>
+  <si>
+    <t>Cuadriceps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg sequence with head outside 
+    3X6s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capoeira leg changes 
+    3X6s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One arm at a time cartwheel 
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Square cartwheel 
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDR entrance 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDR hold + 5 Kg 
+    3X4r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swing up straddle position 
+    3X5r
 </t>
   </si>
   <si>
     <t xml:space="preserve">Straddle press to handstand 
     3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancake legs up 
-    3X12r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L sit Hold 
-    3X15s
-</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg hollow back 
-    3X40s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question handstand Shape 
-    3X4r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg hollow back from bridge 
-    3X30s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg question handstand shape 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assisted semi full flag 
-    2X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep flag 
-    2X40s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step up + 12 Kg 
-    2X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cossack Squat  + 16 Kg 
-    2X12r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One arm hold 
-    3X5s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finger Tip One arm  Tuck -Full Sequence 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Assisted One arm hold 
-    2X25s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swing up full position 
-    2X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle press to handstand chest to wall 
-    2X6r
 </t>
   </si>
   <si>
@@ -194,23 +381,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tuck planche 
-    3X15s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance tuck front lever touch bar 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep handstand push up 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted pull ups + 25 Kg 
-    3X6r
+    <t xml:space="preserve">Pull ups 
+    3X12r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archer pull ups 
+    3X10r
 </t>
   </si>
   <si>
@@ -219,8 +396,53 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Weighted chin ups + 25 Kg 
-    3X6r
+    <t xml:space="preserve">Dips 
+    3X10r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curl de biceps con mancuerna + 16 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L changes + 5 Kg 
+    3X12s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full to straddle + 5 Kg 
+    3X8s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One leg Hip Thrust 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step up + 12 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance tuck front lever touch bar 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 degrees Negatives 
+    3X5r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive pull ups 
+    3X7r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over head press + 24 Kg 
+    3X8r
 </t>
   </si>
   <si>
@@ -229,239 +451,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tuck planche push up 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive Squats + 12 Kg 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dead lift + 80 Kg 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step up + 12 Kg 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duck walks + 10 Kg 
-    3X12r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollow back repetitions 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge to stand up 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monkey 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One arm Shrugs in block + hold 
-    2X3s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pike to advance push up 
-    2X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle front lever hold 
-    2X10s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep handstand push up 
-    2X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archer pull ups 
-    2X10r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pull ups 
-    2X12r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep assisted handstand push up 
-    2X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuck planche push up 
-    2X8r
-</t>
-  </si>
-  <si>
-    <t>Pectoral</t>
-  </si>
-  <si>
-    <t>Deltoide</t>
-  </si>
-  <si>
-    <t>Triceps</t>
-  </si>
-  <si>
-    <t>Escapula</t>
-  </si>
-  <si>
-    <t>Espalda</t>
-  </si>
-  <si>
-    <t>Biceps</t>
-  </si>
-  <si>
-    <t>Gluteos</t>
-  </si>
-  <si>
-    <t>Isquios</t>
-  </si>
-  <si>
-    <t>Cuadriceps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capoeira leg changes 
-    3X6s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg sequence with head outside 
-    3X6s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One arm at a time cartwheel 
-    3X10r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L shape cartwheel 
-    3X10r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QDR hold + 5 Kg 
-    3X4r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handstand to QDR 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle press to handstand chest to wall 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle front lever hold 
-    3X10s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advance tuck planche 
-    3X15s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 degrees Negatives 
-    3X5r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosive pull ups 
-    3X7r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front assisted handstand push up 
-    3X10r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Dips 
-    3X12r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curl de biceps con mancuerna + 16 Kg 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finger Tip One arm  Straddle -Full Sequence 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuck to straddle + 5 Kg 
-    3X8s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg complete sequence + 5 Kg 
-    3X8s
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One leg Hip Thrust 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straddle front lever negative 
-    3X5r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuck to Handstand 
-    3X5r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pull ups 
-    3X12r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dips 
-    3X10r
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Squats + 60 Kg 
     3X8r
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Front handspring 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bend S 
-    3X6r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartwheel to front handsrping 
+    <t xml:space="preserve">One leg dead lift  + 26 Kg 
+    3X8r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow back repetitions 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand up monkey 
     3X6r
 </t>
   </si>
@@ -471,18 +476,23 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Hollow back cartwheel progression 
+    3X6r
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge to stand up 
+    3X6r
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stand up to bridge 
     3X6r
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Stalder Negative 
-    3X8r
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pike to advance push up 
-    3X8r
+    <t xml:space="preserve">Bridge to handstand 
+    3X6r
 </t>
   </si>
 </sst>
@@ -941,13 +951,13 @@
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="1">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="J2" s="1">
         <v>392</v>
@@ -962,16 +972,16 @@
         <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>67</v>
@@ -1006,13 +1016,13 @@
         <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I3" s="1">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="J3" s="1">
         <v>420</v>
@@ -1024,25 +1034,25 @@
         <v>77</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="S3" s="1">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="T3" s="1">
         <v>420</v>
@@ -1062,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>45</v>
@@ -1071,13 +1081,13 @@
         <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="1">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J4" s="1">
         <v>280</v>
@@ -1089,25 +1099,25 @@
         <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="S4" s="1">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="T4" s="1">
         <v>280</v>
@@ -1127,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>46</v>
@@ -1142,7 +1152,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="1">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="J5" s="1">
         <v>420</v>
@@ -1157,22 +1167,22 @@
         <v>86</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="1">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="T5" s="1">
         <v>420</v>
@@ -1198,7 +1208,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>60</v>
@@ -1207,7 +1217,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="1">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="J6" s="1">
         <v>448</v>
@@ -1222,22 +1232,22 @@
         <v>87</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="S6" s="1">
-        <v>855</v>
+        <v>890</v>
       </c>
       <c r="T6" s="1">
         <v>448</v>
@@ -1263,7 +1273,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>61</v>
@@ -1272,7 +1282,7 @@
         <v>72</v>
       </c>
       <c r="I7" s="1">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J7" s="1">
         <v>224</v>
@@ -1287,22 +1297,22 @@
         <v>88</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="S7" s="1">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="T7" s="1">
         <v>224</v>
@@ -1328,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>62</v>
@@ -1337,7 +1347,7 @@
         <v>73</v>
       </c>
       <c r="I8" s="1">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="J8" s="1">
         <v>224</v>
@@ -1346,28 +1356,28 @@
         <v>336</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="S8" s="1">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="T8" s="1">
         <v>224</v>
@@ -1390,7 +1400,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -1399,7 +1409,7 @@
         <v>74</v>
       </c>
       <c r="I9" s="1">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="J9" s="1">
         <v>280</v>
@@ -1408,19 +1418,19 @@
         <v>448</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="S9" s="1">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="T9" s="1">
         <v>280</v>
@@ -1446,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="1">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="J10" s="1">
         <v>336</v>
@@ -1455,16 +1465,16 @@
         <v>504</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="S10" s="1">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="T10" s="1">
         <v>336</v>
@@ -1484,10 +1494,10 @@
         <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1">
